--- a/result/TrailATR/summary_DOW_M30_2020-2024_0.xlsx
+++ b/result/TrailATR/summary_DOW_M30_2020-2024_0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -532,10 +532,10 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -554,54 +554,54 @@
         <v>2024</v>
       </c>
       <c r="G2" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="H2" t="n">
         <v>3.600000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="J2" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K2" t="n">
-        <v>9132.50000000008</v>
+        <v>9607.399999999972</v>
       </c>
       <c r="L2" t="n">
-        <v>-163</v>
+        <v>-326</v>
       </c>
       <c r="M2" t="n">
-        <v>2283</v>
+        <v>2403</v>
       </c>
       <c r="N2" t="n">
-        <v>9295.50000000008</v>
+        <v>9933.399999999972</v>
       </c>
       <c r="O2" t="n">
         <v>-662.4000000000015</v>
       </c>
       <c r="P2" t="n">
-        <v>6420.5</v>
+        <v>3326.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>4.071616294349576</v>
+        <v>4.133749479816884</v>
       </c>
       <c r="R2" t="n">
-        <v>252.4712755468059</v>
+        <v>227.8594997270517</v>
       </c>
       <c r="S2" t="n">
-        <v>-30.29999999999563</v>
+        <v>-32</v>
       </c>
       <c r="T2" t="n">
-        <v>0.1857205431449847</v>
+        <v>0.1876820640865585</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -620,54 +620,54 @@
         <v>2024</v>
       </c>
       <c r="G3" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>3.600000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="J3" t="n">
         <v>300</v>
       </c>
       <c r="K3" t="n">
-        <v>4579.899999999987</v>
+        <v>9132.50000000008</v>
       </c>
       <c r="L3" t="n">
-        <v>-1093</v>
+        <v>-163</v>
       </c>
       <c r="M3" t="n">
-        <v>2462</v>
+        <v>2283</v>
       </c>
       <c r="N3" t="n">
-        <v>5672.899999999987</v>
+        <v>9295.50000000008</v>
       </c>
       <c r="O3" t="n">
-        <v>-814.6000000000022</v>
+        <v>-662.4000000000015</v>
       </c>
       <c r="P3" t="n">
-        <v>5876.5</v>
+        <v>6420.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.304183590576761</v>
+        <v>4.071616294349576</v>
       </c>
       <c r="R3" t="n">
-        <v>232.8480232951113</v>
+        <v>252.4712755468059</v>
       </c>
       <c r="S3" t="n">
-        <v>-27.5</v>
+        <v>-30.29999999999563</v>
       </c>
       <c r="T3" t="n">
-        <v>0.194557270511779</v>
+        <v>0.1857205431449847</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="B4" t="n">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -686,54 +686,54 @@
         <v>2024</v>
       </c>
       <c r="G4" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="H4" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J4" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="K4" t="n">
-        <v>925.9000000000742</v>
+        <v>9045.099999999868</v>
       </c>
       <c r="L4" t="n">
-        <v>-3333.499999999993</v>
+        <v>-238</v>
       </c>
       <c r="M4" t="n">
-        <v>2555</v>
+        <v>2577</v>
       </c>
       <c r="N4" t="n">
-        <v>4259.400000000067</v>
+        <v>9283.099999999868</v>
       </c>
       <c r="O4" t="n">
-        <v>-2693</v>
+        <v>-681.7000000000007</v>
       </c>
       <c r="P4" t="n">
-        <v>3934.5</v>
+        <v>4411</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.667084148728011</v>
+        <v>3.602289483895952</v>
       </c>
       <c r="R4" t="n">
-        <v>225.5983152684599</v>
+        <v>230.0984576228701</v>
       </c>
       <c r="S4" t="n">
-        <v>-32</v>
+        <v>-30</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1937377690802348</v>
+        <v>0.1901435778036477</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="B5" t="n">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -752,54 +752,54 @@
         <v>2024</v>
       </c>
       <c r="G5" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="H5" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="I5" t="n">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="J5" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="K5" t="n">
-        <v>-418.5000000001637</v>
+        <v>5907.59999999998</v>
       </c>
       <c r="L5" t="n">
-        <v>-542.5</v>
+        <v>-1102</v>
       </c>
       <c r="M5" t="n">
-        <v>4937</v>
+        <v>2514</v>
       </c>
       <c r="N5" t="n">
-        <v>123.9999999998363</v>
+        <v>7009.59999999998</v>
       </c>
       <c r="O5" t="n">
-        <v>-680.5</v>
+        <v>-814.6000000000022</v>
       </c>
       <c r="P5" t="n">
-        <v>2621.5</v>
+        <v>6150</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.02511646749034561</v>
+        <v>2.788225934765306</v>
       </c>
       <c r="R5" t="n">
-        <v>154.4970288757938</v>
+        <v>236.5329547357184</v>
       </c>
       <c r="S5" t="n">
-        <v>-22.5</v>
+        <v>-27.20000000000073</v>
       </c>
       <c r="T5" t="n">
-        <v>0.2627101478630747</v>
+        <v>0.1933174224343675</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -818,54 +818,54 @@
         <v>2024</v>
       </c>
       <c r="G6" t="n">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="J6" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="K6" t="n">
-        <v>-1823.100000000046</v>
+        <v>4579.899999999987</v>
       </c>
       <c r="L6" t="n">
-        <v>-7728</v>
+        <v>-1093</v>
       </c>
       <c r="M6" t="n">
-        <v>3805</v>
+        <v>2462</v>
       </c>
       <c r="N6" t="n">
-        <v>5904.899999999954</v>
+        <v>5672.899999999987</v>
       </c>
       <c r="O6" t="n">
-        <v>-1163</v>
+        <v>-814.6000000000022</v>
       </c>
       <c r="P6" t="n">
-        <v>2027</v>
+        <v>5876.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.551879106438884</v>
+        <v>2.304183590576761</v>
       </c>
       <c r="R6" t="n">
-        <v>190.8074652318153</v>
+        <v>232.8480232951113</v>
       </c>
       <c r="S6" t="n">
-        <v>-29</v>
+        <v>-27.5</v>
       </c>
       <c r="T6" t="n">
-        <v>0.2701708278580815</v>
+        <v>0.194557270511779</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="B7" t="n">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -884,54 +884,54 @@
         <v>2024</v>
       </c>
       <c r="G7" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="H7" t="n">
-        <v>3.8</v>
+        <v>3.600000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="J7" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K7" t="n">
-        <v>-1860.399999999951</v>
+        <v>4452.200000000055</v>
       </c>
       <c r="L7" t="n">
-        <v>-3339.899999999929</v>
+        <v>-162</v>
       </c>
       <c r="M7" t="n">
-        <v>2683</v>
+        <v>2427</v>
       </c>
       <c r="N7" t="n">
-        <v>1479.499999999978</v>
+        <v>4614.200000000055</v>
       </c>
       <c r="O7" t="n">
-        <v>-2693</v>
+        <v>-662.4000000000015</v>
       </c>
       <c r="P7" t="n">
-        <v>3467</v>
+        <v>4315.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.5514349608646956</v>
+        <v>1.901194890811724</v>
       </c>
       <c r="R7" t="n">
-        <v>216.3142155216359</v>
+        <v>227.1317597660237</v>
       </c>
       <c r="S7" t="n">
-        <v>-31.90000000000146</v>
+        <v>-29.5</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1926947446887812</v>
+        <v>0.1915945611866502</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="B8" t="n">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -950,54 +950,54 @@
         <v>2024</v>
       </c>
       <c r="G8" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H8" t="n">
-        <v>1.4</v>
+        <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="J8" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="K8" t="n">
-        <v>-6647.200000000223</v>
+        <v>4080.699999999997</v>
       </c>
       <c r="L8" t="n">
-        <v>-3323.600000000111</v>
+        <v>-835</v>
       </c>
       <c r="M8" t="n">
-        <v>4205</v>
+        <v>2424</v>
       </c>
       <c r="N8" t="n">
-        <v>-3323.600000000111</v>
+        <v>4915.699999999997</v>
       </c>
       <c r="O8" t="n">
-        <v>-2693</v>
+        <v>-689.1000000000022</v>
       </c>
       <c r="P8" t="n">
-        <v>2293.899999999998</v>
+        <v>4086</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.7903923900119171</v>
+        <v>2.027929042904289</v>
       </c>
       <c r="R8" t="n">
-        <v>162.6093311904783</v>
+        <v>229.821373453474</v>
       </c>
       <c r="S8" t="n">
-        <v>-22.10000000000218</v>
+        <v>-31.5</v>
       </c>
       <c r="T8" t="n">
-        <v>0.2497027348394768</v>
+        <v>0.1881188118811881</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1016,54 +1016,54 @@
         <v>2024</v>
       </c>
       <c r="G9" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="H9" t="n">
-        <v>3.8</v>
+        <v>1.6</v>
       </c>
       <c r="I9" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="J9" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K9" t="n">
-        <v>-8177.600000000191</v>
+        <v>3179.199999999943</v>
       </c>
       <c r="L9" t="n">
-        <v>-9915</v>
+        <v>-552</v>
       </c>
       <c r="M9" t="n">
-        <v>3565</v>
+        <v>3047</v>
       </c>
       <c r="N9" t="n">
-        <v>1737.399999999809</v>
+        <v>3731.199999999943</v>
       </c>
       <c r="O9" t="n">
-        <v>-1332.5</v>
+        <v>-653.9000000000015</v>
       </c>
       <c r="P9" t="n">
-        <v>1851.5</v>
+        <v>6487.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.487349228611447</v>
+        <v>1.224548736462075</v>
       </c>
       <c r="R9" t="n">
-        <v>193.2668554885209</v>
+        <v>212.8871099968421</v>
       </c>
       <c r="S9" t="n">
-        <v>-32</v>
+        <v>-23</v>
       </c>
       <c r="T9" t="n">
-        <v>0.2479663394109397</v>
+        <v>0.2323596980636692</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="B10" t="n">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1082,54 +1082,54 @@
         <v>2024</v>
       </c>
       <c r="G10" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H10" t="n">
-        <v>1.6</v>
+        <v>3.4</v>
       </c>
       <c r="I10" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="J10" t="n">
         <v>350</v>
       </c>
       <c r="K10" t="n">
-        <v>-10479.40000000022</v>
+        <v>1989.999999999978</v>
       </c>
       <c r="L10" t="n">
-        <v>-5239.70000000011</v>
+        <v>-824</v>
       </c>
       <c r="M10" t="n">
-        <v>3398</v>
+        <v>2506</v>
       </c>
       <c r="N10" t="n">
-        <v>-5239.70000000011</v>
+        <v>2813.999999999978</v>
       </c>
       <c r="O10" t="n">
-        <v>-680.5</v>
+        <v>-689.1000000000022</v>
       </c>
       <c r="P10" t="n">
-        <v>3473</v>
+        <v>3994</v>
       </c>
       <c r="Q10" t="n">
-        <v>-1.541995291347884</v>
+        <v>1.122905027932952</v>
       </c>
       <c r="R10" t="n">
-        <v>174.4026047214581</v>
+        <v>229.96740544681</v>
       </c>
       <c r="S10" t="n">
-        <v>-23</v>
+        <v>-32</v>
       </c>
       <c r="T10" t="n">
-        <v>0.2319011183048852</v>
+        <v>0.1899441340782123</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B11" t="n">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1148,54 +1148,54 @@
         <v>2024</v>
       </c>
       <c r="G11" t="n">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="H11" t="n">
-        <v>2.600000000000001</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="J11" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="K11" t="n">
-        <v>-21113.60000000027</v>
+        <v>1012.999999999924</v>
       </c>
       <c r="L11" t="n">
-        <v>-10587.60000000013</v>
+        <v>-595</v>
       </c>
       <c r="M11" t="n">
-        <v>4003</v>
+        <v>3160</v>
       </c>
       <c r="N11" t="n">
-        <v>-10526.00000000013</v>
+        <v>1607.999999999924</v>
       </c>
       <c r="O11" t="n">
-        <v>-1068</v>
+        <v>-680.5</v>
       </c>
       <c r="P11" t="n">
-        <v>2401</v>
+        <v>3392</v>
       </c>
       <c r="Q11" t="n">
-        <v>-2.629527854109452</v>
+        <v>0.5088607594936467</v>
       </c>
       <c r="R11" t="n">
-        <v>175.5179564536736</v>
+        <v>179.4596212578007</v>
       </c>
       <c r="S11" t="n">
-        <v>-27</v>
+        <v>-23</v>
       </c>
       <c r="T11" t="n">
-        <v>0.2283287534349238</v>
+        <v>0.229746835443038</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="B12" t="n">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1214,54 +1214,54 @@
         <v>2024</v>
       </c>
       <c r="G12" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H12" t="n">
-        <v>3.4</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J12" t="n">
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="K12" t="n">
-        <v>-26301.99999999986</v>
+        <v>947.0999999998676</v>
       </c>
       <c r="L12" t="n">
-        <v>-15762.39999999991</v>
+        <v>-427</v>
       </c>
       <c r="M12" t="n">
-        <v>2643</v>
+        <v>3051</v>
       </c>
       <c r="N12" t="n">
-        <v>-10539.59999999995</v>
+        <v>1374.099999999868</v>
       </c>
       <c r="O12" t="n">
-        <v>-662.4000000000015</v>
+        <v>-659.1000000000022</v>
       </c>
       <c r="P12" t="n">
-        <v>3934.5</v>
+        <v>6555</v>
       </c>
       <c r="Q12" t="n">
-        <v>-3.987741203178187</v>
+        <v>0.4503769255981211</v>
       </c>
       <c r="R12" t="n">
-        <v>209.0916518323754</v>
+        <v>213.167596392546</v>
       </c>
       <c r="S12" t="n">
-        <v>-30.59999999999854</v>
+        <v>-23</v>
       </c>
       <c r="T12" t="n">
-        <v>0.1785849413545214</v>
+        <v>0.232055063913471</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B13" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1280,54 +1280,54 @@
         <v>2024</v>
       </c>
       <c r="G13" t="n">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="H13" t="n">
-        <v>1.6</v>
+        <v>3.8</v>
       </c>
       <c r="I13" t="n">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="J13" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="K13" t="n">
-        <v>-27885.10000000002</v>
+        <v>925.9000000000742</v>
       </c>
       <c r="L13" t="n">
-        <v>-13950.40000000001</v>
+        <v>-3333.499999999993</v>
       </c>
       <c r="M13" t="n">
-        <v>5741</v>
+        <v>2555</v>
       </c>
       <c r="N13" t="n">
-        <v>-13934.70000000001</v>
+        <v>4259.400000000067</v>
       </c>
       <c r="O13" t="n">
-        <v>-1134</v>
+        <v>-2693</v>
       </c>
       <c r="P13" t="n">
-        <v>2699</v>
+        <v>3934.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>-2.427225222086746</v>
+        <v>1.667084148728011</v>
       </c>
       <c r="R13" t="n">
-        <v>147.9177131077229</v>
+        <v>225.5983152684599</v>
       </c>
       <c r="S13" t="n">
-        <v>-21.5</v>
+        <v>-32</v>
       </c>
       <c r="T13" t="n">
-        <v>0.2670266504093364</v>
+        <v>0.1937377690802348</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="B14" t="n">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1346,54 +1346,54 @@
         <v>2024</v>
       </c>
       <c r="G14" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="H14" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="I14" t="n">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="J14" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K14" t="n">
-        <v>-32435.50000000008</v>
+        <v>746.2000000000517</v>
       </c>
       <c r="L14" t="n">
-        <v>-17516.70000000003</v>
+        <v>-2324</v>
       </c>
       <c r="M14" t="n">
-        <v>3343</v>
+        <v>3241</v>
       </c>
       <c r="N14" t="n">
-        <v>-14918.80000000005</v>
+        <v>3070.200000000052</v>
       </c>
       <c r="O14" t="n">
-        <v>-1332.5</v>
+        <v>-771.5</v>
       </c>
       <c r="P14" t="n">
-        <v>2027</v>
+        <v>3812.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>-4.462698175291671</v>
+        <v>0.9473002159827373</v>
       </c>
       <c r="R14" t="n">
-        <v>196.3042038933114</v>
+        <v>194.4898351487911</v>
       </c>
       <c r="S14" t="n">
-        <v>-35</v>
+        <v>-26</v>
       </c>
       <c r="T14" t="n">
-        <v>0.2551600358959019</v>
+        <v>0.2122801604443073</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1412,54 +1412,54 @@
         <v>2024</v>
       </c>
       <c r="G15" t="n">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="H15" t="n">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="I15" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="J15" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K15" t="n">
-        <v>-38114.50000000017</v>
+        <v>581.8000000000684</v>
       </c>
       <c r="L15" t="n">
-        <v>-19057.50000000009</v>
+        <v>-1429.599999999962</v>
       </c>
       <c r="M15" t="n">
-        <v>2873</v>
+        <v>2388</v>
       </c>
       <c r="N15" t="n">
-        <v>-19057.00000000009</v>
+        <v>2011.400000000031</v>
       </c>
       <c r="O15" t="n">
-        <v>-653.9000000000015</v>
+        <v>-662.4000000000015</v>
       </c>
       <c r="P15" t="n">
-        <v>6376</v>
+        <v>3326.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>-6.633136094674587</v>
+        <v>0.842294807370197</v>
       </c>
       <c r="R15" t="n">
-        <v>210.690960468967</v>
+        <v>222.6971583792162</v>
       </c>
       <c r="S15" t="n">
-        <v>-24.59999999999854</v>
+        <v>-32</v>
       </c>
       <c r="T15" t="n">
-        <v>0.2189349112426036</v>
+        <v>0.1884422110552764</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1478,54 +1478,54 @@
         <v>2024</v>
       </c>
       <c r="G16" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="H16" t="n">
-        <v>3.600000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="I16" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="J16" t="n">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="K16" t="n">
-        <v>-52762.90000000018</v>
+        <v>-418.5000000001637</v>
       </c>
       <c r="L16" t="n">
-        <v>-27033.70000000004</v>
+        <v>-542.5</v>
       </c>
       <c r="M16" t="n">
-        <v>2869</v>
+        <v>4937</v>
       </c>
       <c r="N16" t="n">
-        <v>-25729.20000000014</v>
+        <v>123.9999999998363</v>
       </c>
       <c r="O16" t="n">
-        <v>-662.4000000000015</v>
+        <v>-680.5</v>
       </c>
       <c r="P16" t="n">
-        <v>3985</v>
+        <v>2621.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>-8.968002788428072</v>
+        <v>0.02511646749034561</v>
       </c>
       <c r="R16" t="n">
-        <v>202.7659067993064</v>
+        <v>154.4970288757938</v>
       </c>
       <c r="S16" t="n">
-        <v>-33</v>
+        <v>-22.5</v>
       </c>
       <c r="T16" t="n">
-        <v>0.2011153712094806</v>
+        <v>0.2627101478630747</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="B17" t="n">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1544,178 +1544,4402 @@
         <v>2024</v>
       </c>
       <c r="G17" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="H17" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="I17" t="n">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="J17" t="n">
-        <v>100</v>
+        <v>450</v>
       </c>
       <c r="K17" t="n">
-        <v>-57445.50000000002</v>
+        <v>-534.300000000032</v>
       </c>
       <c r="L17" t="n">
-        <v>-28726.60000000001</v>
+        <v>-772</v>
       </c>
       <c r="M17" t="n">
-        <v>4235</v>
+        <v>2922</v>
       </c>
       <c r="N17" t="n">
-        <v>-28718.90000000001</v>
+        <v>237.699999999968</v>
       </c>
       <c r="O17" t="n">
-        <v>-823.5</v>
+        <v>-653.9000000000015</v>
       </c>
       <c r="P17" t="n">
-        <v>2293.899999999998</v>
+        <v>6487.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>-6.781322314049588</v>
+        <v>0.08134839151265161</v>
       </c>
       <c r="R17" t="n">
-        <v>154.7607962925034</v>
+        <v>212.4500737045601</v>
       </c>
       <c r="S17" t="n">
         <v>-23.5</v>
       </c>
       <c r="T17" t="n">
-        <v>0.2403778040141676</v>
+        <v>0.2282683093771389</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="B18" t="n">
+        <v>83</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G18" t="n">
         <v>15</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>DOW</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>M30</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>2020</v>
-      </c>
-      <c r="F18" t="n">
-        <v>2024</v>
-      </c>
-      <c r="G18" t="n">
-        <v>90</v>
       </c>
       <c r="H18" t="n">
         <v>3</v>
       </c>
       <c r="I18" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="J18" t="n">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="K18" t="n">
-        <v>-105770.4999999998</v>
+        <v>-794.6999999998952</v>
       </c>
       <c r="L18" t="n">
-        <v>-53036.19999999993</v>
+        <v>-1750.199999999924</v>
       </c>
       <c r="M18" t="n">
-        <v>2342</v>
+        <v>3025</v>
       </c>
       <c r="N18" t="n">
-        <v>-52734.29999999989</v>
+        <v>955.5000000000291</v>
       </c>
       <c r="O18" t="n">
-        <v>-689.1000000000022</v>
+        <v>-680.5</v>
       </c>
       <c r="P18" t="n">
-        <v>2252.200000000001</v>
+        <v>2692.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>-22.51678052946195</v>
+        <v>0.3158677685950509</v>
       </c>
       <c r="R18" t="n">
-        <v>158.4933128494285</v>
+        <v>202.9064018381175</v>
       </c>
       <c r="S18" t="n">
-        <v>-50.45000000000073</v>
+        <v>-31.59999999999854</v>
       </c>
       <c r="T18" t="n">
-        <v>0.1298035866780529</v>
+        <v>0.2102479338842975</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B19" t="n">
+        <v>7</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G19" t="n">
+        <v>15</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+      <c r="I19" t="n">
+        <v>15</v>
+      </c>
+      <c r="J19" t="n">
+        <v>350</v>
+      </c>
+      <c r="K19" t="n">
+        <v>-1823.100000000046</v>
+      </c>
+      <c r="L19" t="n">
+        <v>-7728</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3805</v>
+      </c>
+      <c r="N19" t="n">
+        <v>5904.899999999954</v>
+      </c>
+      <c r="O19" t="n">
+        <v>-1163</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2027</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.551879106438884</v>
+      </c>
+      <c r="R19" t="n">
+        <v>190.8074652318153</v>
+      </c>
+      <c r="S19" t="n">
+        <v>-29</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.2701708278580815</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B20" t="n">
+        <v>14</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G20" t="n">
+        <v>35</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I20" t="n">
+        <v>70</v>
+      </c>
+      <c r="J20" t="n">
+        <v>500</v>
+      </c>
+      <c r="K20" t="n">
+        <v>-1860.399999999951</v>
+      </c>
+      <c r="L20" t="n">
+        <v>-3339.899999999929</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2683</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1479.499999999978</v>
+      </c>
+      <c r="O20" t="n">
+        <v>-2693</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3467</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.5514349608646956</v>
+      </c>
+      <c r="R20" t="n">
+        <v>216.3142155216359</v>
+      </c>
+      <c r="S20" t="n">
+        <v>-31.90000000000146</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.1926947446887812</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B21" t="n">
+        <v>92</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G21" t="n">
+        <v>60</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I21" t="n">
+        <v>60</v>
+      </c>
+      <c r="J21" t="n">
+        <v>300</v>
+      </c>
+      <c r="K21" t="n">
+        <v>-2352.500000000058</v>
+      </c>
+      <c r="L21" t="n">
+        <v>-1272</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3433</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-1080.500000000058</v>
+      </c>
+      <c r="O21" t="n">
+        <v>-680.5</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3756.5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>-0.3147392950772089</v>
+      </c>
+      <c r="R21" t="n">
+        <v>175.8341802489971</v>
+      </c>
+      <c r="S21" t="n">
+        <v>-22.79999999999563</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.2365278182347801</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B22" t="n">
+        <v>58</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G22" t="n">
+        <v>25</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I22" t="n">
+        <v>55</v>
+      </c>
+      <c r="J22" t="n">
+        <v>300</v>
+      </c>
+      <c r="K22" t="n">
+        <v>-3165.900000000278</v>
+      </c>
+      <c r="L22" t="n">
+        <v>-3045.299999999992</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3335</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-120.6000000002859</v>
+      </c>
+      <c r="O22" t="n">
+        <v>-680.5</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3812.5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>-0.0361619190405655</v>
+      </c>
+      <c r="R22" t="n">
+        <v>190.6284750238453</v>
+      </c>
+      <c r="S22" t="n">
+        <v>-24.59999999999854</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.2152923538230885</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B23" t="n">
+        <v>55</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G23" t="n">
+        <v>90</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I23" t="n">
+        <v>55</v>
+      </c>
+      <c r="J23" t="n">
+        <v>450</v>
+      </c>
+      <c r="K23" t="n">
+        <v>-3314.599999999995</v>
+      </c>
+      <c r="L23" t="n">
+        <v>-2131.5</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3521</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-1183.099999999995</v>
+      </c>
+      <c r="O23" t="n">
+        <v>-2693</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3741</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>-0.3360124964498707</v>
+      </c>
+      <c r="R23" t="n">
+        <v>180.6562283171235</v>
+      </c>
+      <c r="S23" t="n">
+        <v>-22.10000000000582</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0.2334564044305595</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B24" t="n">
+        <v>48</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F24" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G24" t="n">
+        <v>45</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I24" t="n">
+        <v>25</v>
+      </c>
+      <c r="J24" t="n">
+        <v>450</v>
+      </c>
+      <c r="K24" t="n">
+        <v>-4631.400000000089</v>
+      </c>
+      <c r="L24" t="n">
+        <v>-6870.5</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3381</v>
+      </c>
+      <c r="N24" t="n">
+        <v>2239.099999999911</v>
+      </c>
+      <c r="O24" t="n">
+        <v>-1134</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1949.5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.6622596864832627</v>
+      </c>
+      <c r="R24" t="n">
+        <v>197.090794641073</v>
+      </c>
+      <c r="S24" t="n">
+        <v>-32</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0.256433007985803</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B25" t="n">
+        <v>91</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G25" t="n">
+        <v>40</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2.600000000000001</v>
+      </c>
+      <c r="I25" t="n">
+        <v>60</v>
+      </c>
+      <c r="J25" t="n">
+        <v>450</v>
+      </c>
+      <c r="K25" t="n">
+        <v>-6076.800000000021</v>
+      </c>
+      <c r="L25" t="n">
+        <v>-4605.899999999987</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3189</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-1470.900000000034</v>
+      </c>
+      <c r="O25" t="n">
+        <v>-2693</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3781</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>-0.4612417685795027</v>
+      </c>
+      <c r="R25" t="n">
+        <v>200.8478517939288</v>
+      </c>
+      <c r="S25" t="n">
+        <v>-26</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.204766384446535</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B26" t="n">
+        <v>9</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F26" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G26" t="n">
+        <v>95</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I26" t="n">
+        <v>40</v>
+      </c>
+      <c r="J26" t="n">
+        <v>450</v>
+      </c>
+      <c r="K26" t="n">
+        <v>-6647.200000000223</v>
+      </c>
+      <c r="L26" t="n">
+        <v>-3323.600000000111</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4205</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-3323.600000000111</v>
+      </c>
+      <c r="O26" t="n">
+        <v>-2693</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2293.899999999998</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>-0.7903923900119171</v>
+      </c>
+      <c r="R26" t="n">
+        <v>162.6093311904783</v>
+      </c>
+      <c r="S26" t="n">
+        <v>-22.10000000000218</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.2497027348394768</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G27" t="n">
+        <v>20</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I27" t="n">
+        <v>55</v>
+      </c>
+      <c r="J27" t="n">
+        <v>500</v>
+      </c>
+      <c r="K27" t="n">
+        <v>-7294.199999999764</v>
+      </c>
+      <c r="L27" t="n">
+        <v>-4800.199999999881</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2817</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-2493.999999999884</v>
+      </c>
+      <c r="O27" t="n">
+        <v>-1531.5</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3747</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>-0.8853390131344989</v>
+      </c>
+      <c r="R27" t="n">
+        <v>215.9186945516876</v>
+      </c>
+      <c r="S27" t="n">
+        <v>-32.5</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.2097976570820021</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B28" t="n">
+        <v>45</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G28" t="n">
+        <v>20</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I28" t="n">
+        <v>55</v>
+      </c>
+      <c r="J28" t="n">
+        <v>200</v>
+      </c>
+      <c r="K28" t="n">
+        <v>-7654.900000000227</v>
+      </c>
+      <c r="L28" t="n">
+        <v>-4313.400000000041</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3415</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-3341.500000000186</v>
+      </c>
+      <c r="O28" t="n">
+        <v>-662.4000000000015</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3812.5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>-0.9784773060029825</v>
+      </c>
+      <c r="R28" t="n">
+        <v>187.4565285579543</v>
+      </c>
+      <c r="S28" t="n">
+        <v>-25</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.2128843338213763</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B29" t="n">
+        <v>6</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F29" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G29" t="n">
+        <v>25</v>
+      </c>
+      <c r="H29" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I29" t="n">
+        <v>30</v>
+      </c>
+      <c r="J29" t="n">
+        <v>300</v>
+      </c>
+      <c r="K29" t="n">
+        <v>-8177.600000000191</v>
+      </c>
+      <c r="L29" t="n">
+        <v>-9915</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3565</v>
+      </c>
+      <c r="N29" t="n">
+        <v>1737.399999999809</v>
+      </c>
+      <c r="O29" t="n">
+        <v>-1332.5</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1851.5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.487349228611447</v>
+      </c>
+      <c r="R29" t="n">
+        <v>193.2668554885209</v>
+      </c>
+      <c r="S29" t="n">
+        <v>-32</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0.2479663394109397</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B30" t="n">
+        <v>86</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G30" t="n">
+        <v>40</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I30" t="n">
+        <v>5</v>
+      </c>
+      <c r="J30" t="n">
+        <v>450</v>
+      </c>
+      <c r="K30" t="n">
+        <v>-8216.199999999892</v>
+      </c>
+      <c r="L30" t="n">
+        <v>-10694.5</v>
+      </c>
+      <c r="M30" t="n">
+        <v>9103</v>
+      </c>
+      <c r="N30" t="n">
+        <v>2478.300000000108</v>
+      </c>
+      <c r="O30" t="n">
+        <v>-1531.5</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1721.5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.27225090629464</v>
+      </c>
+      <c r="R30" t="n">
+        <v>123.6556539894079</v>
+      </c>
+      <c r="S30" t="n">
+        <v>-17.59999999999854</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.3432934197517302</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B31" t="n">
+        <v>76</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F31" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G31" t="n">
+        <v>25</v>
+      </c>
+      <c r="H31" t="n">
         <v>2</v>
       </c>
-      <c r="B19" t="n">
+      <c r="I31" t="n">
+        <v>5</v>
+      </c>
+      <c r="J31" t="n">
+        <v>300</v>
+      </c>
+      <c r="K31" t="n">
+        <v>-8547.100000000126</v>
+      </c>
+      <c r="L31" t="n">
+        <v>-13716</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5006</v>
+      </c>
+      <c r="N31" t="n">
+        <v>5168.899999999874</v>
+      </c>
+      <c r="O31" t="n">
+        <v>-1332.5</v>
+      </c>
+      <c r="P31" t="n">
+        <v>2434</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.032540950858944</v>
+      </c>
+      <c r="R31" t="n">
+        <v>170.2843330225312</v>
+      </c>
+      <c r="S31" t="n">
+        <v>-23.19999999999709</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0.3551737914502597</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B32" t="n">
+        <v>29</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F32" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G32" t="n">
+        <v>10</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I32" t="n">
+        <v>70</v>
+      </c>
+      <c r="J32" t="n">
+        <v>350</v>
+      </c>
+      <c r="K32" t="n">
+        <v>-8713.100000000086</v>
+      </c>
+      <c r="L32" t="n">
+        <v>-4406.800000000032</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3461</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-4306.300000000054</v>
+      </c>
+      <c r="O32" t="n">
+        <v>-680.5</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3392</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>-1.244235770008683</v>
+      </c>
+      <c r="R32" t="n">
+        <v>174.4973686187548</v>
+      </c>
+      <c r="S32" t="n">
+        <v>-21.5</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.2343253394972551</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B33" t="n">
+        <v>46</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F33" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G33" t="n">
+        <v>75</v>
+      </c>
+      <c r="H33" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I33" t="n">
+        <v>35</v>
+      </c>
+      <c r="J33" t="n">
+        <v>250</v>
+      </c>
+      <c r="K33" t="n">
+        <v>-8729.300000000021</v>
+      </c>
+      <c r="L33" t="n">
+        <v>-6178.5</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3981</v>
+      </c>
+      <c r="N33" t="n">
+        <v>-2550.800000000021</v>
+      </c>
+      <c r="O33" t="n">
+        <v>-1134</v>
+      </c>
+      <c r="P33" t="n">
+        <v>2460.5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>-0.640743531775941</v>
+      </c>
+      <c r="R33" t="n">
+        <v>181.7953052049861</v>
+      </c>
+      <c r="S33" t="n">
+        <v>-27.40000000000146</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0.236372770660638</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B34" t="n">
+        <v>38</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F34" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G34" t="n">
+        <v>35</v>
+      </c>
+      <c r="H34" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I34" t="n">
+        <v>30</v>
+      </c>
+      <c r="J34" t="n">
+        <v>350</v>
+      </c>
+      <c r="K34" t="n">
+        <v>-9012.500000000113</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-7149</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3545</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-1863.500000000113</v>
+      </c>
+      <c r="O34" t="n">
+        <v>-1134</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1791</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>-0.5256699576869147</v>
+      </c>
+      <c r="R34" t="n">
+        <v>190.9947669580746</v>
+      </c>
+      <c r="S34" t="n">
+        <v>-32</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0.2479548660084626</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B35" t="n">
+        <v>30</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F35" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G35" t="n">
+        <v>10</v>
+      </c>
+      <c r="H35" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I35" t="n">
+        <v>55</v>
+      </c>
+      <c r="J35" t="n">
+        <v>500</v>
+      </c>
+      <c r="K35" t="n">
+        <v>-10116.59999999985</v>
+      </c>
+      <c r="L35" t="n">
+        <v>-6218.599999999904</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2969</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-3897.999999999949</v>
+      </c>
+      <c r="O35" t="n">
+        <v>-1685</v>
+      </c>
+      <c r="P35" t="n">
+        <v>3747</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>-1.312899966318609</v>
+      </c>
+      <c r="R35" t="n">
+        <v>209.3532003523891</v>
+      </c>
+      <c r="S35" t="n">
+        <v>-31.5</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0.2034355001684069</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B36" t="n">
+        <v>20</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F36" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G36" t="n">
+        <v>100</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I36" t="n">
+        <v>60</v>
+      </c>
+      <c r="J36" t="n">
+        <v>350</v>
+      </c>
+      <c r="K36" t="n">
+        <v>-10479.40000000022</v>
+      </c>
+      <c r="L36" t="n">
+        <v>-5239.70000000011</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3398</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-5239.70000000011</v>
+      </c>
+      <c r="O36" t="n">
+        <v>-680.5</v>
+      </c>
+      <c r="P36" t="n">
+        <v>3473</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>-1.541995291347884</v>
+      </c>
+      <c r="R36" t="n">
+        <v>174.4026047214581</v>
+      </c>
+      <c r="S36" t="n">
+        <v>-23</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0.2319011183048852</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B37" t="n">
+        <v>33</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F37" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G37" t="n">
+        <v>15</v>
+      </c>
+      <c r="H37" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I37" t="n">
+        <v>55</v>
+      </c>
+      <c r="J37" t="n">
+        <v>450</v>
+      </c>
+      <c r="K37" t="n">
+        <v>-12088.39999999988</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-7079.599999999926</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2927</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-5008.799999999952</v>
+      </c>
+      <c r="O37" t="n">
+        <v>-1531.5</v>
+      </c>
+      <c r="P37" t="n">
+        <v>3747</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>-1.711240177656287</v>
+      </c>
+      <c r="R37" t="n">
+        <v>213.3945037875546</v>
+      </c>
+      <c r="S37" t="n">
+        <v>-32.19999999999709</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0.2008882815169115</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B38" t="n">
+        <v>98</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F38" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G38" t="n">
+        <v>10</v>
+      </c>
+      <c r="H38" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I38" t="n">
+        <v>45</v>
+      </c>
+      <c r="J38" t="n">
+        <v>200</v>
+      </c>
+      <c r="K38" t="n">
+        <v>-13494.20000000035</v>
+      </c>
+      <c r="L38" t="n">
+        <v>-6778.600000000177</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3751</v>
+      </c>
+      <c r="N38" t="n">
+        <v>-6715.600000000177</v>
+      </c>
+      <c r="O38" t="n">
+        <v>-662.4000000000015</v>
+      </c>
+      <c r="P38" t="n">
+        <v>2510</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>-1.79034924020266</v>
+      </c>
+      <c r="R38" t="n">
+        <v>181.7680615894358</v>
+      </c>
+      <c r="S38" t="n">
+        <v>-27.5</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0.2207411356971474</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B39" t="n">
+        <v>51</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F39" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G39" t="n">
+        <v>30</v>
+      </c>
+      <c r="H39" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I39" t="n">
+        <v>5</v>
+      </c>
+      <c r="J39" t="n">
+        <v>400</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-13845.59999999999</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-17230</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4922</v>
+      </c>
+      <c r="N39" t="n">
+        <v>3384.400000000005</v>
+      </c>
+      <c r="O39" t="n">
+        <v>-1332.5</v>
+      </c>
+      <c r="P39" t="n">
+        <v>2434</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.6876066639577418</v>
+      </c>
+      <c r="R39" t="n">
+        <v>170.5332130291326</v>
+      </c>
+      <c r="S39" t="n">
+        <v>-24.80000000000109</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0.3549370174725721</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B40" t="n">
+        <v>50</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F40" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G40" t="n">
+        <v>85</v>
+      </c>
+      <c r="H40" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I40" t="n">
+        <v>60</v>
+      </c>
+      <c r="J40" t="n">
+        <v>200</v>
+      </c>
+      <c r="K40" t="n">
+        <v>-14144.00000000001</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-7072.000000000004</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3077</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-7072.000000000004</v>
+      </c>
+      <c r="O40" t="n">
+        <v>-662.4000000000015</v>
+      </c>
+      <c r="P40" t="n">
+        <v>3781</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>-2.298342541436465</v>
+      </c>
+      <c r="R40" t="n">
+        <v>198.6340597801901</v>
+      </c>
+      <c r="S40" t="n">
+        <v>-27.5</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0.2021449463763406</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B41" t="n">
+        <v>93</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F41" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G41" t="n">
+        <v>55</v>
+      </c>
+      <c r="H41" t="n">
+        <v>3.600000000000001</v>
+      </c>
+      <c r="I41" t="n">
+        <v>50</v>
+      </c>
+      <c r="J41" t="n">
+        <v>500</v>
+      </c>
+      <c r="K41" t="n">
+        <v>-14187.60000000004</v>
+      </c>
+      <c r="L41" t="n">
+        <v>-8806.39999999998</v>
+      </c>
+      <c r="M41" t="n">
+        <v>2811</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-5381.200000000063</v>
+      </c>
+      <c r="O41" t="n">
+        <v>-1685</v>
+      </c>
+      <c r="P41" t="n">
+        <v>2752</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>-1.914336535040933</v>
+      </c>
+      <c r="R41" t="n">
+        <v>213.5560129558453</v>
+      </c>
+      <c r="S41" t="n">
+        <v>-33</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0.2070437566702241</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B42" t="n">
+        <v>81</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F42" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G42" t="n">
+        <v>65</v>
+      </c>
+      <c r="H42" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I42" t="n">
+        <v>40</v>
+      </c>
+      <c r="J42" t="n">
+        <v>350</v>
+      </c>
+      <c r="K42" t="n">
+        <v>-15277.50000000015</v>
+      </c>
+      <c r="L42" t="n">
+        <v>-7643.200000000073</v>
+      </c>
+      <c r="M42" t="n">
+        <v>3743</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-7634.300000000079</v>
+      </c>
+      <c r="O42" t="n">
+        <v>-1531.5</v>
+      </c>
+      <c r="P42" t="n">
+        <v>2460.5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>-2.039620625167</v>
+      </c>
+      <c r="R42" t="n">
+        <v>183.6524659909677</v>
+      </c>
+      <c r="S42" t="n">
+        <v>-27.5</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0.2278920651883516</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B43" t="n">
+        <v>42</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F43" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G43" t="n">
+        <v>95</v>
+      </c>
+      <c r="H43" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I43" t="n">
+        <v>70</v>
+      </c>
+      <c r="J43" t="n">
+        <v>500</v>
+      </c>
+      <c r="K43" t="n">
+        <v>-16230.69999999981</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-9784.79999999993</v>
+      </c>
+      <c r="M43" t="n">
+        <v>2632</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-6445.899999999878</v>
+      </c>
+      <c r="O43" t="n">
+        <v>-2693</v>
+      </c>
+      <c r="P43" t="n">
+        <v>3467</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>-2.449050151975638</v>
+      </c>
+      <c r="R43" t="n">
+        <v>216.4269002166682</v>
+      </c>
+      <c r="S43" t="n">
+        <v>-31.79999999999927</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0.1850303951367781</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B44" t="n">
+        <v>69</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F44" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G44" t="n">
+        <v>95</v>
+      </c>
+      <c r="H44" t="n">
+        <v>2.600000000000001</v>
+      </c>
+      <c r="I44" t="n">
+        <v>15</v>
+      </c>
+      <c r="J44" t="n">
+        <v>500</v>
+      </c>
+      <c r="K44" t="n">
+        <v>-16233.89999999986</v>
+      </c>
+      <c r="L44" t="n">
+        <v>-11470.5</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4843</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-4763.39999999986</v>
+      </c>
+      <c r="O44" t="n">
+        <v>-1531.5</v>
+      </c>
+      <c r="P44" t="n">
+        <v>2420.5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>-0.9835639066693908</v>
+      </c>
+      <c r="R44" t="n">
+        <v>174.0910686749268</v>
+      </c>
+      <c r="S44" t="n">
+        <v>-27.90000000000146</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0.2686351435060912</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B45" t="n">
+        <v>72</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F45" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G45" t="n">
+        <v>50</v>
+      </c>
+      <c r="H45" t="n">
+        <v>3.600000000000001</v>
+      </c>
+      <c r="I45" t="n">
+        <v>20</v>
+      </c>
+      <c r="J45" t="n">
+        <v>450</v>
+      </c>
+      <c r="K45" t="n">
+        <v>-16544.50000000004</v>
+      </c>
+      <c r="L45" t="n">
+        <v>-10603.5</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3305</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-5941.000000000036</v>
+      </c>
+      <c r="O45" t="n">
+        <v>-1121.5</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1672</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>-1.797579425113475</v>
+      </c>
+      <c r="R45" t="n">
+        <v>202.7604175151884</v>
+      </c>
+      <c r="S45" t="n">
+        <v>-32.59999999999854</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0.2544629349470499</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B46" t="n">
+        <v>24</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F46" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G46" t="n">
+        <v>55</v>
+      </c>
+      <c r="H46" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I46" t="n">
+        <v>50</v>
+      </c>
+      <c r="J46" t="n">
+        <v>300</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-17140.80000000005</v>
+      </c>
+      <c r="L46" t="n">
+        <v>-10260.99999999998</v>
+      </c>
+      <c r="M46" t="n">
+        <v>2811</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-6879.800000000065</v>
+      </c>
+      <c r="O46" t="n">
+        <v>-680.5</v>
+      </c>
+      <c r="P46" t="n">
+        <v>2752</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>-2.447456421202442</v>
+      </c>
+      <c r="R46" t="n">
+        <v>211.7599087753321</v>
+      </c>
+      <c r="S46" t="n">
+        <v>-33</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0.2063322660974742</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B47" t="n">
+        <v>61</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F47" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G47" t="n">
+        <v>20</v>
+      </c>
+      <c r="H47" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I47" t="n">
+        <v>50</v>
+      </c>
+      <c r="J47" t="n">
+        <v>200</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-17346.69999999971</v>
+      </c>
+      <c r="L47" t="n">
+        <v>-9368.599999999849</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2907</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-7978.099999999857</v>
+      </c>
+      <c r="O47" t="n">
+        <v>-662.4000000000015</v>
+      </c>
+      <c r="P47" t="n">
+        <v>2987.5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>-2.744444444444395</v>
+      </c>
+      <c r="R47" t="n">
+        <v>206.1953086697974</v>
+      </c>
+      <c r="S47" t="n">
+        <v>-32.5</v>
+      </c>
+      <c r="T47" t="n">
+        <v>0.2119023047815617</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B48" t="n">
+        <v>63</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F48" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G48" t="n">
+        <v>55</v>
+      </c>
+      <c r="H48" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I48" t="n">
+        <v>10</v>
+      </c>
+      <c r="J48" t="n">
+        <v>250</v>
+      </c>
+      <c r="K48" t="n">
+        <v>-18787.80000000005</v>
+      </c>
+      <c r="L48" t="n">
+        <v>-16092</v>
+      </c>
+      <c r="M48" t="n">
+        <v>2938</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-2695.800000000047</v>
+      </c>
+      <c r="O48" t="n">
+        <v>-1332.5</v>
+      </c>
+      <c r="P48" t="n">
+        <v>2039.5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>-0.9175629680054618</v>
+      </c>
+      <c r="R48" t="n">
+        <v>216.1203986122256</v>
+      </c>
+      <c r="S48" t="n">
+        <v>-34</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0.3104152484683458</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>57</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F49" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G49" t="n">
+        <v>85</v>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+      <c r="I49" t="n">
+        <v>30</v>
+      </c>
+      <c r="J49" t="n">
+        <v>250</v>
+      </c>
+      <c r="K49" t="n">
+        <v>-19081.19999999979</v>
+      </c>
+      <c r="L49" t="n">
+        <v>-9586.399999999896</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4395</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-9494.799999999897</v>
+      </c>
+      <c r="O49" t="n">
+        <v>-1134</v>
+      </c>
+      <c r="P49" t="n">
+        <v>2181</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>-2.160364050056859</v>
+      </c>
+      <c r="R49" t="n">
+        <v>173.1803273944662</v>
+      </c>
+      <c r="S49" t="n">
+        <v>-27.09999999999854</v>
+      </c>
+      <c r="T49" t="n">
+        <v>0.2400455062571104</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B50" t="n">
+        <v>52</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F50" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G50" t="n">
+        <v>25</v>
+      </c>
+      <c r="H50" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I50" t="n">
+        <v>90</v>
+      </c>
+      <c r="J50" t="n">
+        <v>200</v>
+      </c>
+      <c r="K50" t="n">
+        <v>-20027.90000000012</v>
+      </c>
+      <c r="L50" t="n">
+        <v>-10021.80000000006</v>
+      </c>
+      <c r="M50" t="n">
+        <v>2977</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-10006.10000000006</v>
+      </c>
+      <c r="O50" t="n">
+        <v>-674.1000000000022</v>
+      </c>
+      <c r="P50" t="n">
+        <v>6314.5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>-3.361135371179059</v>
+      </c>
+      <c r="R50" t="n">
+        <v>210.2197833470992</v>
+      </c>
+      <c r="S50" t="n">
+        <v>-22.5</v>
+      </c>
+      <c r="T50" t="n">
+        <v>0.2213637890493786</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B51" t="n">
+        <v>34</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F51" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G51" t="n">
+        <v>25</v>
+      </c>
+      <c r="H51" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I51" t="n">
+        <v>15</v>
+      </c>
+      <c r="J51" t="n">
+        <v>450</v>
+      </c>
+      <c r="K51" t="n">
+        <v>-20096.60000000029</v>
+      </c>
+      <c r="L51" t="n">
+        <v>-14459</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5061</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-5637.60000000029</v>
+      </c>
+      <c r="O51" t="n">
+        <v>-1531.5</v>
+      </c>
+      <c r="P51" t="n">
+        <v>1951</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>-1.113930053349198</v>
+      </c>
+      <c r="R51" t="n">
+        <v>166.6594949027601</v>
+      </c>
+      <c r="S51" t="n">
+        <v>-27.5</v>
+      </c>
+      <c r="T51" t="n">
+        <v>0.2734637423434104</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B52" t="n">
+        <v>18</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F52" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G52" t="n">
+        <v>15</v>
+      </c>
+      <c r="H52" t="n">
+        <v>2.600000000000001</v>
+      </c>
+      <c r="I52" t="n">
+        <v>40</v>
+      </c>
+      <c r="J52" t="n">
+        <v>250</v>
+      </c>
+      <c r="K52" t="n">
+        <v>-21113.60000000027</v>
+      </c>
+      <c r="L52" t="n">
+        <v>-10587.60000000013</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4003</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-10526.00000000013</v>
+      </c>
+      <c r="O52" t="n">
+        <v>-1068</v>
+      </c>
+      <c r="P52" t="n">
+        <v>2401</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>-2.629527854109452</v>
+      </c>
+      <c r="R52" t="n">
+        <v>175.5179564536736</v>
+      </c>
+      <c r="S52" t="n">
+        <v>-27</v>
+      </c>
+      <c r="T52" t="n">
+        <v>0.2283287534349238</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B53" t="n">
+        <v>74</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F53" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G53" t="n">
+        <v>15</v>
+      </c>
+      <c r="H53" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I53" t="n">
+        <v>90</v>
+      </c>
+      <c r="J53" t="n">
+        <v>100</v>
+      </c>
+      <c r="K53" t="n">
+        <v>-21219.79999999998</v>
+      </c>
+      <c r="L53" t="n">
+        <v>-10647.99999999999</v>
+      </c>
+      <c r="M53" t="n">
+        <v>2445</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-10571.79999999999</v>
+      </c>
+      <c r="O53" t="n">
+        <v>-662.4000000000015</v>
+      </c>
+      <c r="P53" t="n">
+        <v>6437</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>-4.323844580777092</v>
+      </c>
+      <c r="R53" t="n">
+        <v>245.578321751865</v>
+      </c>
+      <c r="S53" t="n">
+        <v>-33.5</v>
+      </c>
+      <c r="T53" t="n">
+        <v>0.1783231083844581</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B54" t="n">
+        <v>22</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F54" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G54" t="n">
+        <v>50</v>
+      </c>
+      <c r="H54" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I54" t="n">
+        <v>75</v>
+      </c>
+      <c r="J54" t="n">
+        <v>150</v>
+      </c>
+      <c r="K54" t="n">
+        <v>-26301.99999999986</v>
+      </c>
+      <c r="L54" t="n">
+        <v>-15762.39999999991</v>
+      </c>
+      <c r="M54" t="n">
+        <v>2643</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-10539.59999999995</v>
+      </c>
+      <c r="O54" t="n">
+        <v>-662.4000000000015</v>
+      </c>
+      <c r="P54" t="n">
+        <v>3934.5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>-3.987741203178187</v>
+      </c>
+      <c r="R54" t="n">
+        <v>209.0916518323754</v>
+      </c>
+      <c r="S54" t="n">
+        <v>-30.59999999999854</v>
+      </c>
+      <c r="T54" t="n">
+        <v>0.1785849413545214</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B55" t="n">
+        <v>11</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F55" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G55" t="n">
+        <v>25</v>
+      </c>
+      <c r="H55" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I55" t="n">
+        <v>25</v>
+      </c>
+      <c r="J55" t="n">
+        <v>400</v>
+      </c>
+      <c r="K55" t="n">
+        <v>-27885.10000000002</v>
+      </c>
+      <c r="L55" t="n">
+        <v>-13950.40000000001</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5741</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-13934.70000000001</v>
+      </c>
+      <c r="O55" t="n">
+        <v>-1134</v>
+      </c>
+      <c r="P55" t="n">
+        <v>2699</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>-2.427225222086746</v>
+      </c>
+      <c r="R55" t="n">
+        <v>147.9177131077229</v>
+      </c>
+      <c r="S55" t="n">
+        <v>-21.5</v>
+      </c>
+      <c r="T55" t="n">
+        <v>0.2670266504093364</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="n">
+        <v>66</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F56" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G56" t="n">
+        <v>100</v>
+      </c>
+      <c r="H56" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I56" t="n">
+        <v>30</v>
+      </c>
+      <c r="J56" t="n">
+        <v>250</v>
+      </c>
+      <c r="K56" t="n">
+        <v>-28686.80000000025</v>
+      </c>
+      <c r="L56" t="n">
+        <v>-15507.30000000013</v>
+      </c>
+      <c r="M56" t="n">
+        <v>3341</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-13179.50000000012</v>
+      </c>
+      <c r="O56" t="n">
+        <v>-1332.5</v>
+      </c>
+      <c r="P56" t="n">
+        <v>2027</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>-3.944777012870435</v>
+      </c>
+      <c r="R56" t="n">
+        <v>193.4354467894548</v>
+      </c>
+      <c r="S56" t="n">
+        <v>-33.40000000000146</v>
+      </c>
+      <c r="T56" t="n">
+        <v>0.2394492666866208</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B57" t="n">
+        <v>94</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F57" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G57" t="n">
+        <v>15</v>
+      </c>
+      <c r="H57" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I57" t="n">
+        <v>15</v>
+      </c>
+      <c r="J57" t="n">
+        <v>350</v>
+      </c>
+      <c r="K57" t="n">
+        <v>-29076.70000000019</v>
+      </c>
+      <c r="L57" t="n">
+        <v>-14634.3000000001</v>
+      </c>
+      <c r="M57" t="n">
+        <v>7221</v>
+      </c>
+      <c r="N57" t="n">
+        <v>-14442.40000000009</v>
+      </c>
+      <c r="O57" t="n">
+        <v>-1328</v>
+      </c>
+      <c r="P57" t="n">
+        <v>3153</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>-2.000055393989765</v>
+      </c>
+      <c r="R57" t="n">
+        <v>137.7339191550223</v>
+      </c>
+      <c r="S57" t="n">
+        <v>-19.59999999999854</v>
+      </c>
+      <c r="T57" t="n">
+        <v>0.2744772192217144</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B58" t="n">
+        <v>88</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F58" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G58" t="n">
+        <v>100</v>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+      <c r="I58" t="n">
+        <v>10</v>
+      </c>
+      <c r="J58" t="n">
+        <v>400</v>
+      </c>
+      <c r="K58" t="n">
+        <v>-29437.29999999995</v>
+      </c>
+      <c r="L58" t="n">
+        <v>-16580</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4954</v>
+      </c>
+      <c r="N58" t="n">
+        <v>-12857.29999999995</v>
+      </c>
+      <c r="O58" t="n">
+        <v>-1531.5</v>
+      </c>
+      <c r="P58" t="n">
+        <v>2434</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>-2.595337101332246</v>
+      </c>
+      <c r="R58" t="n">
+        <v>172.2268539727983</v>
+      </c>
+      <c r="S58" t="n">
+        <v>-28.24999999999636</v>
+      </c>
+      <c r="T58" t="n">
+        <v>0.2939039160274526</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B59" t="n">
+        <v>32</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F59" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G59" t="n">
+        <v>70</v>
+      </c>
+      <c r="H59" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I59" t="n">
+        <v>45</v>
+      </c>
+      <c r="J59" t="n">
+        <v>150</v>
+      </c>
+      <c r="K59" t="n">
+        <v>-29766.70000000008</v>
+      </c>
+      <c r="L59" t="n">
+        <v>-14887.20000000004</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3923</v>
+      </c>
+      <c r="N59" t="n">
+        <v>-14879.50000000004</v>
+      </c>
+      <c r="O59" t="n">
+        <v>-823.5</v>
+      </c>
+      <c r="P59" t="n">
+        <v>3679</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>-3.792888095845026</v>
+      </c>
+      <c r="R59" t="n">
+        <v>167.4037497791394</v>
+      </c>
+      <c r="S59" t="n">
+        <v>-23</v>
+      </c>
+      <c r="T59" t="n">
+        <v>0.2403772622992608</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B60" t="n">
+        <v>97</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F60" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G60" t="n">
+        <v>40</v>
+      </c>
+      <c r="H60" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I60" t="n">
+        <v>40</v>
+      </c>
+      <c r="J60" t="n">
+        <v>200</v>
+      </c>
+      <c r="K60" t="n">
+        <v>-32254.80000000021</v>
+      </c>
+      <c r="L60" t="n">
+        <v>-16946.40000000004</v>
+      </c>
+      <c r="M60" t="n">
+        <v>3275</v>
+      </c>
+      <c r="N60" t="n">
+        <v>-15308.40000000017</v>
+      </c>
+      <c r="O60" t="n">
+        <v>-1134</v>
+      </c>
+      <c r="P60" t="n">
+        <v>2293.5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>-4.674320610687073</v>
+      </c>
+      <c r="R60" t="n">
+        <v>194.9866843998347</v>
+      </c>
+      <c r="S60" t="n">
+        <v>-31.70000000000073</v>
+      </c>
+      <c r="T60" t="n">
+        <v>0.2152671755725191</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B61" t="n">
+        <v>10</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F61" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G61" t="n">
+        <v>100</v>
+      </c>
+      <c r="H61" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I61" t="n">
+        <v>20</v>
+      </c>
+      <c r="J61" t="n">
+        <v>250</v>
+      </c>
+      <c r="K61" t="n">
+        <v>-32435.50000000008</v>
+      </c>
+      <c r="L61" t="n">
+        <v>-17516.70000000003</v>
+      </c>
+      <c r="M61" t="n">
+        <v>3343</v>
+      </c>
+      <c r="N61" t="n">
+        <v>-14918.80000000005</v>
+      </c>
+      <c r="O61" t="n">
+        <v>-1332.5</v>
+      </c>
+      <c r="P61" t="n">
+        <v>2027</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>-4.462698175291671</v>
+      </c>
+      <c r="R61" t="n">
+        <v>196.3042038933114</v>
+      </c>
+      <c r="S61" t="n">
+        <v>-35</v>
+      </c>
+      <c r="T61" t="n">
+        <v>0.2551600358959019</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B62" t="n">
+        <v>67</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F62" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G62" t="n">
+        <v>25</v>
+      </c>
+      <c r="H62" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I62" t="n">
+        <v>10</v>
+      </c>
+      <c r="J62" t="n">
+        <v>450</v>
+      </c>
+      <c r="K62" t="n">
+        <v>-34103.89999999986</v>
+      </c>
+      <c r="L62" t="n">
+        <v>-17079.49999999993</v>
+      </c>
+      <c r="M62" t="n">
+        <v>7889</v>
+      </c>
+      <c r="N62" t="n">
+        <v>-17024.39999999993</v>
+      </c>
+      <c r="O62" t="n">
+        <v>-1531.5</v>
+      </c>
+      <c r="P62" t="n">
+        <v>2427</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>-2.157992140955752</v>
+      </c>
+      <c r="R62" t="n">
+        <v>129.9141232771568</v>
+      </c>
+      <c r="S62" t="n">
+        <v>-19.90000000000146</v>
+      </c>
+      <c r="T62" t="n">
+        <v>0.2967422994042337</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B63" t="n">
+        <v>2</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F63" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G63" t="n">
+        <v>45</v>
+      </c>
+      <c r="H63" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I63" t="n">
+        <v>90</v>
+      </c>
+      <c r="J63" t="n">
+        <v>100</v>
+      </c>
+      <c r="K63" t="n">
+        <v>-38114.50000000017</v>
+      </c>
+      <c r="L63" t="n">
+        <v>-19057.50000000009</v>
+      </c>
+      <c r="M63" t="n">
+        <v>2873</v>
+      </c>
+      <c r="N63" t="n">
+        <v>-19057.00000000009</v>
+      </c>
+      <c r="O63" t="n">
+        <v>-653.9000000000015</v>
+      </c>
+      <c r="P63" t="n">
+        <v>6376</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>-6.633136094674587</v>
+      </c>
+      <c r="R63" t="n">
+        <v>210.690960468967</v>
+      </c>
+      <c r="S63" t="n">
+        <v>-24.59999999999854</v>
+      </c>
+      <c r="T63" t="n">
+        <v>0.2189349112426036</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B64" t="n">
+        <v>44</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F64" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G64" t="n">
+        <v>100</v>
+      </c>
+      <c r="H64" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I64" t="n">
+        <v>50</v>
+      </c>
+      <c r="J64" t="n">
+        <v>100</v>
+      </c>
+      <c r="K64" t="n">
+        <v>-40029.49999999983</v>
+      </c>
+      <c r="L64" t="n">
+        <v>-20023.89999999991</v>
+      </c>
+      <c r="M64" t="n">
+        <v>3229</v>
+      </c>
+      <c r="N64" t="n">
+        <v>-20005.59999999992</v>
+      </c>
+      <c r="O64" t="n">
+        <v>-662.4000000000015</v>
+      </c>
+      <c r="P64" t="n">
+        <v>3812.5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>-6.195602353669843</v>
+      </c>
+      <c r="R64" t="n">
+        <v>191.4701048847773</v>
+      </c>
+      <c r="S64" t="n">
+        <v>-28.5</v>
+      </c>
+      <c r="T64" t="n">
+        <v>0.2053267265407247</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="n">
+        <v>78</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F65" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G65" t="n">
+        <v>95</v>
+      </c>
+      <c r="H65" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="I65" t="n">
+        <v>5</v>
+      </c>
+      <c r="J65" t="n">
+        <v>200</v>
+      </c>
+      <c r="K65" t="n">
+        <v>-43444.99999999983</v>
+      </c>
+      <c r="L65" t="n">
+        <v>-22747.49999999989</v>
+      </c>
+      <c r="M65" t="n">
+        <v>9137</v>
+      </c>
+      <c r="N65" t="n">
+        <v>-20697.49999999993</v>
+      </c>
+      <c r="O65" t="n">
+        <v>-1248.5</v>
+      </c>
+      <c r="P65" t="n">
+        <v>1337</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>-2.265240232023633</v>
+      </c>
+      <c r="R65" t="n">
+        <v>122.3635620418221</v>
+      </c>
+      <c r="S65" t="n">
+        <v>-19.09999999999854</v>
+      </c>
+      <c r="T65" t="n">
+        <v>0.3355587173032724</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B66" t="n">
+        <v>73</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F66" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G66" t="n">
+        <v>95</v>
+      </c>
+      <c r="H66" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I66" t="n">
+        <v>15</v>
+      </c>
+      <c r="J66" t="n">
+        <v>200</v>
+      </c>
+      <c r="K66" t="n">
+        <v>-46006.70000000033</v>
+      </c>
+      <c r="L66" t="n">
+        <v>-23031.10000000017</v>
+      </c>
+      <c r="M66" t="n">
+        <v>6713</v>
+      </c>
+      <c r="N66" t="n">
+        <v>-22975.60000000017</v>
+      </c>
+      <c r="O66" t="n">
+        <v>-650</v>
+      </c>
+      <c r="P66" t="n">
+        <v>2535</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>-3.422553254878618</v>
+      </c>
+      <c r="R66" t="n">
+        <v>135.9673652832992</v>
+      </c>
+      <c r="S66" t="n">
+        <v>-21.5</v>
+      </c>
+      <c r="T66" t="n">
+        <v>0.2727543572173395</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B67" t="n">
+        <v>64</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F67" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G67" t="n">
+        <v>60</v>
+      </c>
+      <c r="H67" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I67" t="n">
+        <v>70</v>
+      </c>
+      <c r="J67" t="n">
+        <v>100</v>
+      </c>
+      <c r="K67" t="n">
+        <v>-50231.79999999996</v>
+      </c>
+      <c r="L67" t="n">
+        <v>-27200.79999999998</v>
+      </c>
+      <c r="M67" t="n">
+        <v>2577</v>
+      </c>
+      <c r="N67" t="n">
+        <v>-23030.99999999997</v>
+      </c>
+      <c r="O67" t="n">
+        <v>-662.4000000000015</v>
+      </c>
+      <c r="P67" t="n">
+        <v>3467</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>-8.937136204889395</v>
+      </c>
+      <c r="R67" t="n">
+        <v>207.6918744516928</v>
+      </c>
+      <c r="S67" t="n">
+        <v>-35</v>
+      </c>
+      <c r="T67" t="n">
+        <v>0.1750097012029492</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B68" t="n">
+        <v>8</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F68" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G68" t="n">
+        <v>75</v>
+      </c>
+      <c r="H68" t="n">
+        <v>3.600000000000001</v>
+      </c>
+      <c r="I68" t="n">
+        <v>50</v>
+      </c>
+      <c r="J68" t="n">
+        <v>150</v>
+      </c>
+      <c r="K68" t="n">
+        <v>-52762.90000000018</v>
+      </c>
+      <c r="L68" t="n">
+        <v>-27033.70000000004</v>
+      </c>
+      <c r="M68" t="n">
+        <v>2869</v>
+      </c>
+      <c r="N68" t="n">
+        <v>-25729.20000000014</v>
+      </c>
+      <c r="O68" t="n">
+        <v>-662.4000000000015</v>
+      </c>
+      <c r="P68" t="n">
+        <v>3985</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>-8.968002788428072</v>
+      </c>
+      <c r="R68" t="n">
+        <v>202.7659067993064</v>
+      </c>
+      <c r="S68" t="n">
+        <v>-33</v>
+      </c>
+      <c r="T68" t="n">
+        <v>0.2011153712094806</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B69" t="n">
+        <v>35</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F69" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G69" t="n">
+        <v>50</v>
+      </c>
+      <c r="H69" t="n">
+        <v>3.600000000000001</v>
+      </c>
+      <c r="I69" t="n">
+        <v>70</v>
+      </c>
+      <c r="J69" t="n">
+        <v>100</v>
+      </c>
+      <c r="K69" t="n">
+        <v>-53735.49999999988</v>
+      </c>
+      <c r="L69" t="n">
+        <v>-28880.39999999991</v>
+      </c>
+      <c r="M69" t="n">
+        <v>2673</v>
+      </c>
+      <c r="N69" t="n">
+        <v>-24855.09999999997</v>
+      </c>
+      <c r="O69" t="n">
+        <v>-662.4000000000015</v>
+      </c>
+      <c r="P69" t="n">
+        <v>3467</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>-9.298578376356142</v>
+      </c>
+      <c r="R69" t="n">
+        <v>202.2596468446255</v>
+      </c>
+      <c r="S69" t="n">
+        <v>-33</v>
+      </c>
+      <c r="T69" t="n">
+        <v>0.1676019453797231</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B70" t="n">
+        <v>12</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F70" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G70" t="n">
+        <v>65</v>
+      </c>
+      <c r="H70" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="I70" t="n">
+        <v>40</v>
+      </c>
+      <c r="J70" t="n">
+        <v>100</v>
+      </c>
+      <c r="K70" t="n">
+        <v>-57445.50000000002</v>
+      </c>
+      <c r="L70" t="n">
+        <v>-28726.60000000001</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4235</v>
+      </c>
+      <c r="N70" t="n">
+        <v>-28718.90000000001</v>
+      </c>
+      <c r="O70" t="n">
+        <v>-823.5</v>
+      </c>
+      <c r="P70" t="n">
+        <v>2293.899999999998</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>-6.781322314049588</v>
+      </c>
+      <c r="R70" t="n">
+        <v>154.7607962925034</v>
+      </c>
+      <c r="S70" t="n">
+        <v>-23.5</v>
+      </c>
+      <c r="T70" t="n">
+        <v>0.2403778040141676</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B71" t="n">
+        <v>89</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F71" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G71" t="n">
+        <v>60</v>
+      </c>
+      <c r="H71" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I71" t="n">
+        <v>5</v>
+      </c>
+      <c r="J71" t="n">
+        <v>150</v>
+      </c>
+      <c r="K71" t="n">
+        <v>-59962.69999999995</v>
+      </c>
+      <c r="L71" t="n">
+        <v>-30730.39999999989</v>
+      </c>
+      <c r="M71" t="n">
+        <v>9213</v>
+      </c>
+      <c r="N71" t="n">
+        <v>-29232.30000000006</v>
+      </c>
+      <c r="O71" t="n">
+        <v>-1052.5</v>
+      </c>
+      <c r="P71" t="n">
+        <v>1337</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>-3.172940410289815</v>
+      </c>
+      <c r="R71" t="n">
+        <v>120.9215366465773</v>
+      </c>
+      <c r="S71" t="n">
+        <v>-18.80000000000291</v>
+      </c>
+      <c r="T71" t="n">
+        <v>0.3399544122435689</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B72" t="n">
+        <v>47</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F72" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G72" t="n">
+        <v>25</v>
+      </c>
+      <c r="H72" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="I72" t="n">
+        <v>15</v>
+      </c>
+      <c r="J72" t="n">
+        <v>200</v>
+      </c>
+      <c r="K72" t="n">
+        <v>-60828.90000000005</v>
+      </c>
+      <c r="L72" t="n">
+        <v>-30425.00000000002</v>
+      </c>
+      <c r="M72" t="n">
+        <v>7029</v>
+      </c>
+      <c r="N72" t="n">
+        <v>-30403.90000000002</v>
+      </c>
+      <c r="O72" t="n">
+        <v>-1372.5</v>
+      </c>
+      <c r="P72" t="n">
+        <v>2823</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>-4.325494380423962</v>
+      </c>
+      <c r="R72" t="n">
+        <v>137.9523002419355</v>
+      </c>
+      <c r="S72" t="n">
+        <v>-21</v>
+      </c>
+      <c r="T72" t="n">
+        <v>0.2765685019206146</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B73" t="n">
+        <v>70</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F73" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G73" t="n">
+        <v>35</v>
+      </c>
+      <c r="H73" t="n">
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>40</v>
+      </c>
+      <c r="J73" t="n">
+        <v>100</v>
+      </c>
+      <c r="K73" t="n">
+        <v>-63727</v>
+      </c>
+      <c r="L73" t="n">
+        <v>-31863.5</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4319</v>
+      </c>
+      <c r="N73" t="n">
+        <v>-31863.5</v>
+      </c>
+      <c r="O73" t="n">
+        <v>-823.5</v>
+      </c>
+      <c r="P73" t="n">
+        <v>2445</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>-7.377517943968511</v>
+      </c>
+      <c r="R73" t="n">
+        <v>157.8765004007551</v>
+      </c>
+      <c r="S73" t="n">
+        <v>-23.5</v>
+      </c>
+      <c r="T73" t="n">
+        <v>0.2387126649687428</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B74" t="n">
+        <v>36</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F74" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G74" t="n">
+        <v>85</v>
+      </c>
+      <c r="H74" t="n">
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>100</v>
+      </c>
+      <c r="J74" t="n">
+        <v>50</v>
+      </c>
+      <c r="K74" t="n">
+        <v>-79406.9999999998</v>
+      </c>
+      <c r="L74" t="n">
+        <v>-39703.4999999999</v>
+      </c>
+      <c r="M74" t="n">
+        <v>2718</v>
+      </c>
+      <c r="N74" t="n">
+        <v>-39703.4999999999</v>
+      </c>
+      <c r="O74" t="n">
+        <v>-653.9000000000015</v>
+      </c>
+      <c r="P74" t="n">
+        <v>6495</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>-14.6076158940397</v>
+      </c>
+      <c r="R74" t="n">
+        <v>194.9632712078618</v>
+      </c>
+      <c r="S74" t="n">
+        <v>-27.34999999999491</v>
+      </c>
+      <c r="T74" t="n">
+        <v>0.1850625459896983</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B75" t="n">
+        <v>39</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F75" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G75" t="n">
+        <v>35</v>
+      </c>
+      <c r="H75" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I75" t="n">
+        <v>75</v>
+      </c>
+      <c r="J75" t="n">
+        <v>50</v>
+      </c>
+      <c r="K75" t="n">
+        <v>-91991.19999999978</v>
+      </c>
+      <c r="L75" t="n">
+        <v>-46091.79999999988</v>
+      </c>
+      <c r="M75" t="n">
+        <v>2955</v>
+      </c>
+      <c r="N75" t="n">
+        <v>-45899.39999999989</v>
+      </c>
+      <c r="O75" t="n">
+        <v>-662.4000000000015</v>
+      </c>
+      <c r="P75" t="n">
+        <v>3869</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>-15.53279187817255</v>
+      </c>
+      <c r="R75" t="n">
+        <v>174.0734382165867</v>
+      </c>
+      <c r="S75" t="n">
+        <v>-35.09999999999854</v>
+      </c>
+      <c r="T75" t="n">
+        <v>0.1631133671742809</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B76" t="n">
+        <v>31</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F76" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G76" t="n">
+        <v>45</v>
+      </c>
+      <c r="H76" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="I76" t="n">
+        <v>70</v>
+      </c>
+      <c r="J76" t="n">
+        <v>50</v>
+      </c>
+      <c r="K76" t="n">
+        <v>-93925.3</v>
+      </c>
+      <c r="L76" t="n">
+        <v>-46962.9</v>
+      </c>
+      <c r="M76" t="n">
+        <v>3197</v>
+      </c>
+      <c r="N76" t="n">
+        <v>-46962.4</v>
+      </c>
+      <c r="O76" t="n">
+        <v>-653.9000000000015</v>
+      </c>
+      <c r="P76" t="n">
+        <v>3392</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>-14.68952142633719</v>
+      </c>
+      <c r="R76" t="n">
+        <v>156.1670971524441</v>
+      </c>
+      <c r="S76" t="n">
+        <v>-27.59999999999854</v>
+      </c>
+      <c r="T76" t="n">
+        <v>0.2020644354081952</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B77" t="n">
+        <v>15</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F77" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G77" t="n">
+        <v>90</v>
+      </c>
+      <c r="H77" t="n">
         <v>3</v>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>DOW</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>M30</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>2020</v>
-      </c>
-      <c r="F19" t="n">
-        <v>2024</v>
-      </c>
-      <c r="G19" t="n">
+      <c r="I77" t="n">
+        <v>95</v>
+      </c>
+      <c r="J77" t="n">
+        <v>50</v>
+      </c>
+      <c r="K77" t="n">
+        <v>-105770.4999999998</v>
+      </c>
+      <c r="L77" t="n">
+        <v>-53036.19999999993</v>
+      </c>
+      <c r="M77" t="n">
+        <v>2342</v>
+      </c>
+      <c r="N77" t="n">
+        <v>-52734.29999999989</v>
+      </c>
+      <c r="O77" t="n">
+        <v>-689.1000000000022</v>
+      </c>
+      <c r="P77" t="n">
+        <v>2252.200000000001</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>-22.51678052946195</v>
+      </c>
+      <c r="R77" t="n">
+        <v>158.4933128494285</v>
+      </c>
+      <c r="S77" t="n">
+        <v>-50.45000000000073</v>
+      </c>
+      <c r="T77" t="n">
+        <v>0.1298035866780529</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B78" t="n">
+        <v>56</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F78" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G78" t="n">
+        <v>35</v>
+      </c>
+      <c r="H78" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I78" t="n">
+        <v>65</v>
+      </c>
+      <c r="J78" t="n">
+        <v>50</v>
+      </c>
+      <c r="K78" t="n">
+        <v>-107789.4000000002</v>
+      </c>
+      <c r="L78" t="n">
+        <v>-53894.70000000008</v>
+      </c>
+      <c r="M78" t="n">
+        <v>2756</v>
+      </c>
+      <c r="N78" t="n">
+        <v>-53894.70000000008</v>
+      </c>
+      <c r="O78" t="n">
+        <v>-662.4000000000015</v>
+      </c>
+      <c r="P78" t="n">
+        <v>2391.200000000001</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>-19.55540638606679</v>
+      </c>
+      <c r="R78" t="n">
+        <v>169.2209838494623</v>
+      </c>
+      <c r="S78" t="n">
+        <v>-51</v>
+      </c>
+      <c r="T78" t="n">
+        <v>0.1484034833091437</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B79" t="n">
+        <v>28</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F79" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G79" t="n">
+        <v>40</v>
+      </c>
+      <c r="H79" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I79" t="n">
+        <v>75</v>
+      </c>
+      <c r="J79" t="n">
+        <v>50</v>
+      </c>
+      <c r="K79" t="n">
+        <v>-114198.2000000003</v>
+      </c>
+      <c r="L79" t="n">
+        <v>-57305.70000000014</v>
+      </c>
+      <c r="M79" t="n">
+        <v>2698</v>
+      </c>
+      <c r="N79" t="n">
+        <v>-56892.50000000015</v>
+      </c>
+      <c r="O79" t="n">
+        <v>-662.4000000000015</v>
+      </c>
+      <c r="P79" t="n">
+        <v>2391.200000000001</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>-21.08691623424765</v>
+      </c>
+      <c r="R79" t="n">
+        <v>164.4262916469943</v>
+      </c>
+      <c r="S79" t="n">
+        <v>-47.95000000000073</v>
+      </c>
+      <c r="T79" t="n">
+        <v>0.1389918458117124</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B80" t="n">
+        <v>49</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F80" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G80" t="n">
+        <v>35</v>
+      </c>
+      <c r="H80" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I80" t="n">
+        <v>45</v>
+      </c>
+      <c r="J80" t="n">
+        <v>50</v>
+      </c>
+      <c r="K80" t="n">
+        <v>-120304.1999999999</v>
+      </c>
+      <c r="L80" t="n">
+        <v>-60152.09999999996</v>
+      </c>
+      <c r="M80" t="n">
+        <v>3985</v>
+      </c>
+      <c r="N80" t="n">
+        <v>-60152.09999999996</v>
+      </c>
+      <c r="O80" t="n">
+        <v>-823.5</v>
+      </c>
+      <c r="P80" t="n">
+        <v>3679</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>-15.09462986198242</v>
+      </c>
+      <c r="R80" t="n">
+        <v>154.4448480131713</v>
+      </c>
+      <c r="S80" t="n">
+        <v>-27.5</v>
+      </c>
+      <c r="T80" t="n">
+        <v>0.2067754077791719</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B81" t="n">
+        <v>3</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F81" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G81" t="n">
         <v>5</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H81" t="n">
         <v>3.8</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I81" t="n">
         <v>25</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J81" t="n">
         <v>100</v>
       </c>
-      <c r="K19" t="n">
+      <c r="K81" t="n">
         <v>-122037.9000000004</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L81" t="n">
         <v>-61672.20000000016</v>
       </c>
-      <c r="M19" t="n">
+      <c r="M81" t="n">
         <v>4115</v>
       </c>
-      <c r="N19" t="n">
+      <c r="N81" t="n">
         <v>-60365.70000000022</v>
       </c>
-      <c r="O19" t="n">
+      <c r="O81" t="n">
         <v>-650</v>
       </c>
-      <c r="P19" t="n">
+      <c r="P81" t="n">
         <v>2148.799999999999</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="Q81" t="n">
         <v>-14.66967193195631</v>
       </c>
-      <c r="R19" t="n">
+      <c r="R81" t="n">
         <v>165.9537793731367</v>
       </c>
-      <c r="S19" t="n">
+      <c r="S81" t="n">
         <v>-32</v>
       </c>
-      <c r="T19" t="n">
+      <c r="T81" t="n">
         <v>0.2051032806804374</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B82" t="n">
+        <v>82</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F82" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G82" t="n">
+        <v>40</v>
+      </c>
+      <c r="H82" t="n">
+        <v>3</v>
+      </c>
+      <c r="I82" t="n">
+        <v>40</v>
+      </c>
+      <c r="J82" t="n">
+        <v>50</v>
+      </c>
+      <c r="K82" t="n">
+        <v>-155441.0000000007</v>
+      </c>
+      <c r="L82" t="n">
+        <v>-77720.50000000035</v>
+      </c>
+      <c r="M82" t="n">
+        <v>3276</v>
+      </c>
+      <c r="N82" t="n">
+        <v>-77720.50000000035</v>
+      </c>
+      <c r="O82" t="n">
+        <v>-662.4000000000015</v>
+      </c>
+      <c r="P82" t="n">
+        <v>1735.300000000003</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>-23.72420634920645</v>
+      </c>
+      <c r="R82" t="n">
+        <v>148.2236100238734</v>
+      </c>
+      <c r="S82" t="n">
+        <v>-52</v>
+      </c>
+      <c r="T82" t="n">
+        <v>0.1593406593406593</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B83" t="n">
+        <v>37</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F83" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G83" t="n">
+        <v>20</v>
+      </c>
+      <c r="H83" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="I83" t="n">
+        <v>5</v>
+      </c>
+      <c r="J83" t="n">
+        <v>50</v>
+      </c>
+      <c r="K83" t="n">
+        <v>-308266.8000000007</v>
+      </c>
+      <c r="L83" t="n">
+        <v>-154218.4000000004</v>
+      </c>
+      <c r="M83" t="n">
+        <v>9559</v>
+      </c>
+      <c r="N83" t="n">
+        <v>-154048.4000000003</v>
+      </c>
+      <c r="O83" t="n">
+        <v>-1328</v>
+      </c>
+      <c r="P83" t="n">
+        <v>1294.900000000001</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>-16.11553509781362</v>
+      </c>
+      <c r="R83" t="n">
+        <v>106.0300653845909</v>
+      </c>
+      <c r="S83" t="n">
+        <v>-23.09999999999854</v>
+      </c>
+      <c r="T83" t="n">
+        <v>0.2971022073438644</v>
       </c>
     </row>
   </sheetData>
